--- a/inputs.xlsx
+++ b/inputs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="10540" yWindow="740" windowWidth="12280" windowHeight="14100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,495 +24,819 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="362">
-  <si>
-    <t>Hồ Quỳnh Hương</t>
-  </si>
-  <si>
-    <t>Tóc Tiên</t>
-  </si>
-  <si>
-    <t>Mỹ Tâm</t>
-  </si>
-  <si>
-    <t>Hồ Ngọc Hà</t>
-  </si>
-  <si>
-    <t>Thanh Lam</t>
-  </si>
-  <si>
-    <t>Mỹ Linh</t>
-  </si>
-  <si>
-    <t>Hồng Nhung</t>
-  </si>
-  <si>
-    <t>Hương Tràm</t>
-  </si>
-  <si>
-    <t>Lệ Quyên</t>
-  </si>
-  <si>
-    <t>Bảo Anh</t>
-  </si>
-  <si>
-    <t>Hòa Minzy</t>
-  </si>
-  <si>
-    <t>Như Quỳnh</t>
-  </si>
-  <si>
-    <t>Bùi Bích Phương</t>
-  </si>
-  <si>
-    <t>Thùy Chi</t>
-  </si>
-  <si>
-    <t>Hoàng Yến Chibi</t>
-  </si>
-  <si>
-    <t>Nhật Kim Anh</t>
-  </si>
-  <si>
-    <t>Cẩm Ly</t>
-  </si>
-  <si>
-    <t>Vy Oanh</t>
-  </si>
-  <si>
-    <t>Lương Bích Hữu</t>
-  </si>
-  <si>
-    <t>Đông Nhi</t>
-  </si>
-  <si>
-    <t>Bảo Thy</t>
-  </si>
-  <si>
-    <t>Phạm Quỳnh Anh</t>
-  </si>
-  <si>
-    <t>Minh Tuyết</t>
-  </si>
-  <si>
-    <t>Thủy Tiên</t>
-  </si>
-  <si>
-    <t>Vũ Cát Tường</t>
-  </si>
-  <si>
-    <t>Tiên Tiên</t>
-  </si>
-  <si>
-    <t>Hiền Thục</t>
-  </si>
-  <si>
-    <t>Hari Won</t>
-  </si>
-  <si>
-    <t>Phương Thanh</t>
-  </si>
-  <si>
-    <t>Dương Hoàng Yến</t>
-  </si>
-  <si>
-    <t>Thanh Thảo</t>
-  </si>
-  <si>
-    <t>Văn Mai Hương</t>
-  </si>
-  <si>
-    <t>Minh Hằng</t>
-  </si>
-  <si>
-    <t>Hoàng Thùy Linh</t>
-  </si>
-  <si>
-    <t>Khổng Tú Quỳnh</t>
-  </si>
-  <si>
-    <t>Uyên Linh</t>
-  </si>
-  <si>
-    <t>Hương Giang Idol</t>
-  </si>
-  <si>
-    <t>Giang Hồng Ngọc</t>
-  </si>
-  <si>
-    <t>Trang Pháp</t>
-  </si>
-  <si>
-    <t>Yến Trang</t>
-  </si>
-  <si>
-    <t>Phương Vy Idol</t>
-  </si>
-  <si>
-    <t>Thu Phương</t>
-  </si>
-  <si>
-    <t>Phi Nhung</t>
-  </si>
-  <si>
-    <t>Hương Lan</t>
-  </si>
-  <si>
-    <t>Cẩm Vân</t>
-  </si>
-  <si>
-    <t>Ánh Tuyết</t>
-  </si>
-  <si>
-    <t>Chi Pu</t>
-  </si>
-  <si>
-    <t>Miu Lê</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>Trương Quỳnh Anh</t>
-  </si>
-  <si>
-    <t>Thanh Thúy</t>
-  </si>
-  <si>
-    <t>Châu Khải Phong</t>
-  </si>
-  <si>
-    <t>Justa Tee</t>
-  </si>
-  <si>
-    <t>Erik</t>
-  </si>
-  <si>
-    <t>Chi Dân</t>
-  </si>
-  <si>
-    <t>Trịnh Thăng Bình</t>
-  </si>
-  <si>
-    <t>Hồ Quang Hiếu</t>
-  </si>
-  <si>
-    <t>Noo Phước Thịnh</t>
-  </si>
-  <si>
-    <t>Đàm Vĩnh Hưng</t>
-  </si>
-  <si>
-    <t>Khắc Việt</t>
-  </si>
-  <si>
-    <t>Quang Hà</t>
-  </si>
-  <si>
-    <t>Bùi Anh Tuấn</t>
-  </si>
-  <si>
-    <t>Trung Quân Idol</t>
-  </si>
-  <si>
-    <t>Tuấn Hưng</t>
-  </si>
-  <si>
-    <t>Khánh Phương</t>
-  </si>
-  <si>
-    <t>Duy Mạnh</t>
-  </si>
-  <si>
-    <t>Ưng Hoàng Phúc</t>
-  </si>
-  <si>
-    <t>Isaac</t>
-  </si>
-  <si>
-    <t>Cao Thái Sơn</t>
-  </si>
-  <si>
-    <t>Bằng Kiều</t>
-  </si>
-  <si>
-    <t>Phạm Hồng Phước</t>
-  </si>
-  <si>
-    <t>Lê Hiếu</t>
-  </si>
-  <si>
-    <t>Quốc Thiên</t>
-  </si>
-  <si>
-    <t>Hoài Lâm</t>
-  </si>
-  <si>
-    <t>Phan Đinh Tùng</t>
-  </si>
-  <si>
-    <t>Lam Trường</t>
-  </si>
-  <si>
-    <t>Quang Dũng</t>
-  </si>
-  <si>
-    <t>Quang Vinh</t>
-  </si>
-  <si>
-    <t>Ngô Kiến Huy</t>
-  </si>
-  <si>
-    <t>Hà Anh Tuấn</t>
-  </si>
-  <si>
-    <t>Ông Cao Thắng</t>
-  </si>
-  <si>
-    <t>Khắc Hưng</t>
-  </si>
-  <si>
-    <t>Nhật Tinh Anh</t>
-  </si>
-  <si>
-    <t>Nam Cường</t>
-  </si>
-  <si>
-    <t>Quách Thành Danh</t>
-  </si>
-  <si>
-    <t>Trúc Nhân</t>
-  </si>
-  <si>
-    <t>Quang Linh</t>
-  </si>
-  <si>
-    <t>Phi Hùng</t>
-  </si>
-  <si>
-    <t>Đan Trường</t>
-  </si>
-  <si>
-    <t>Trọng Hiếu</t>
-  </si>
-  <si>
-    <t>Đăng Khôi</t>
-  </si>
-  <si>
-    <t>Dương Triệu Vũ</t>
-  </si>
-  <si>
-    <t>Trần Lập</t>
-  </si>
-  <si>
-    <t>Phạm Anh Khoa</t>
-  </si>
-  <si>
-    <t>Tuấn Ngọc</t>
-  </si>
-  <si>
-    <t>Trọng Tấn</t>
-  </si>
-  <si>
-    <t>Việt Hoàn</t>
-  </si>
-  <si>
-    <t>Đức Tuấn</t>
-  </si>
-  <si>
-    <t>Quang Lê</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ánh Viên</t>
-  </si>
-  <si>
-    <t>Phan Thị Kim Huệ</t>
-  </si>
-  <si>
-    <t>Thúy Hiền</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="372">
+  <si>
+    <t>Diễn viên Việt Hương</t>
+  </si>
+  <si>
+    <t>Diễn viên Minh Vượng</t>
+  </si>
+  <si>
+    <t>Diễn viên Lâm Vỹ Dạ</t>
+  </si>
+  <si>
+    <t>Diễn viên Thu Trang</t>
+  </si>
+  <si>
+    <t>Diễn viên Nhã Phương</t>
+  </si>
+  <si>
+    <t>Diễn viên Bảo Thanh</t>
+  </si>
+  <si>
+    <t>Diễn viên Cát Phượng</t>
+  </si>
+  <si>
+    <t>Diễn viên Hồng Ánh</t>
+  </si>
+  <si>
+    <t>Diễn viên Hồng Vân</t>
+  </si>
+  <si>
+    <t>Diễn viên Hoàng Oanh</t>
+  </si>
+  <si>
+    <t>Diễn viên Lan Phương</t>
+  </si>
+  <si>
+    <t>Diễn viên Lê Bình</t>
+  </si>
+  <si>
+    <t>Diễn viên Lê Khánh</t>
+  </si>
+  <si>
+    <t>Diễn viên Lý Nhã Kỳ</t>
+  </si>
+  <si>
+    <t>Diễn viên Ngô Thanh Vân</t>
+  </si>
+  <si>
+    <t>Diễn viên Ninh Dương Lan Ngọc</t>
+  </si>
+  <si>
+    <t>Diễn viên Ốc Thanh Vân</t>
+  </si>
+  <si>
+    <t>Diễn viên Vân Trang</t>
+  </si>
+  <si>
+    <t>Diễn viên Việt Trinh</t>
+  </si>
+  <si>
+    <t>Diễn viên Thu Quỳnh</t>
+  </si>
+  <si>
+    <t>Diễn viên Kim Tuyến</t>
+  </si>
+  <si>
+    <t>Diễn viên Cát Tường</t>
+  </si>
+  <si>
+    <t>Diễn viên Kim Xuân</t>
+  </si>
+  <si>
+    <t>Diễn viên Linh Nga</t>
+  </si>
+  <si>
+    <t>Diễn viên Lê Khanh</t>
+  </si>
+  <si>
+    <t>Diễn viên Midu</t>
+  </si>
+  <si>
+    <t>Diễn viên Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>Diễn viên Phương Thanh</t>
+  </si>
+  <si>
+    <t>Diễn viên Thủy Top</t>
+  </si>
+  <si>
+    <t>Diễn viên Tường Vi</t>
+  </si>
+  <si>
+    <t>Diễn viên Lã Thanh Huyền</t>
+  </si>
+  <si>
+    <t>Diễn viên Thanh Vân Hugo</t>
+  </si>
+  <si>
+    <t>Diễn viên Lan Hương</t>
+  </si>
+  <si>
+    <t>Diễn viên Hồng Diễm</t>
+  </si>
+  <si>
+    <t>Diễn viên Thanh Hương</t>
+  </si>
+  <si>
+    <t>Diễn viên Mỹ Uyên</t>
+  </si>
+  <si>
+    <t>Diễn viên Đan Lê</t>
+  </si>
+  <si>
+    <t>Diễn viên Thanh Quý</t>
+  </si>
+  <si>
+    <t>Diễn viên Thùy Anh</t>
+  </si>
+  <si>
+    <t>Diễn viên Ngân Khánh</t>
+  </si>
+  <si>
+    <t>Diễn viên Lâm Khánh Chi</t>
+  </si>
+  <si>
+    <t>Diễn viên Nguyệt Hằng</t>
+  </si>
+  <si>
+    <t>Diễn viên Minh Hằng</t>
+  </si>
+  <si>
+    <t>Diễn viên Thu Hương</t>
+  </si>
+  <si>
+    <t>Diễn viên Vân Dung</t>
+  </si>
+  <si>
+    <t>Diễn viên Lê Phương</t>
+  </si>
+  <si>
+    <t>Diễn viên Mai Phương</t>
+  </si>
+  <si>
+    <t>Diễn viên Trấn Thành</t>
+  </si>
+  <si>
+    <t>Diễn viên Trường Giang</t>
+  </si>
+  <si>
+    <t>Diễn viên Hoài Linh</t>
+  </si>
+  <si>
+    <t>Diễn viên Anh Đức</t>
+  </si>
+  <si>
+    <t>Diễn viên Tự Long</t>
+  </si>
+  <si>
+    <t>Diễn viên Xuân Bắc</t>
+  </si>
+  <si>
+    <t>Diễn viên Giang còi</t>
+  </si>
+  <si>
+    <t>Diễn viên Xuân Hinh</t>
+  </si>
+  <si>
+    <t>Diễn viên Công Lý</t>
+  </si>
+  <si>
+    <t>Diễn viên Chí Tài</t>
+  </si>
+  <si>
+    <t>Diễn viên Đại Nghĩa</t>
+  </si>
+  <si>
+    <t>Diễn viên Đức Hải</t>
+  </si>
+  <si>
+    <t>Diễn viên Hứa Vĩ Văn</t>
+  </si>
+  <si>
+    <t>Diễn viên Huy Khánh</t>
+  </si>
+  <si>
+    <t>Diễn viên Hiếu Hiền</t>
+  </si>
+  <si>
+    <t>Diễn viên Jonny Trí Nguyễn</t>
+  </si>
+  <si>
+    <t>Diễn viên Kiều Minh Tuấn</t>
+  </si>
+  <si>
+    <t>Diễn viên Lý Hải</t>
+  </si>
+  <si>
+    <t>Diễn viên Quách Ngọc Ngoan</t>
+  </si>
+  <si>
+    <t>Diễn viên Trần Bảo Sơn</t>
+  </si>
+  <si>
+    <t>Diễn viên Trương Thế Vinh</t>
+  </si>
+  <si>
+    <t>Diễn viên Tiến Luật</t>
+  </si>
+  <si>
+    <t>Diễn viên Việt Anh</t>
+  </si>
+  <si>
+    <t>Diễn viên Thành Lộc</t>
+  </si>
+  <si>
+    <t>Diễn viên Mạnh Trường</t>
+  </si>
+  <si>
+    <t>Diễn viên Hồng Đăng</t>
+  </si>
+  <si>
+    <t>Diễn viên Chi Bảo</t>
+  </si>
+  <si>
+    <t>Diễn viên Thái Hòa</t>
+  </si>
+  <si>
+    <t>Diễn viên Kim Lý</t>
+  </si>
+  <si>
+    <t>Diễn viên Hiếu Nguyễn</t>
+  </si>
+  <si>
+    <t>Diễn viên Quý Bình</t>
+  </si>
+  <si>
+    <t>Diễn viên Lý Hùng</t>
+  </si>
+  <si>
+    <t>Diễn viên Lương Mạnh Hải</t>
+  </si>
+  <si>
+    <t>Diễn viên Minh Nhí</t>
+  </si>
+  <si>
+    <t>Diễn viên Bảo Chung</t>
+  </si>
+  <si>
+    <t>Diễn viên Chí Thiện</t>
+  </si>
+  <si>
+    <t>Diễn viên Hữu Nghĩa</t>
+  </si>
+  <si>
+    <t>Diễn viên Khương Ngọc</t>
+  </si>
+  <si>
+    <t>Diễn viên Minh Thuận</t>
+  </si>
+  <si>
+    <t>Diễn viên Quang Thắng</t>
+  </si>
+  <si>
+    <t>Diễn viên Quang Tèo</t>
+  </si>
+  <si>
+    <t>Diễn viên Đỗ Kỷ</t>
+  </si>
+  <si>
+    <t>Diễn viên Anh Dũng</t>
+  </si>
+  <si>
+    <t>Diễn viên Hoàng Dũng</t>
+  </si>
+  <si>
+    <t>Diễn viên Mạnh Cường</t>
+  </si>
+  <si>
+    <t>Diễn viên Trần Đức</t>
+  </si>
+  <si>
+    <t>Diễn viên Huỳnh Anh</t>
+  </si>
+  <si>
+    <t>Diễn viên Chí Trung</t>
+  </si>
+  <si>
+    <t>Diễn viên Đức Khuê</t>
+  </si>
+  <si>
+    <t>Diễn viên Anh Tú</t>
+  </si>
+  <si>
+    <t>Diễn viên Trần Lực</t>
+  </si>
+  <si>
+    <t>Diễn viên Anh Vũ</t>
+  </si>
+  <si>
+    <t>Diễn viên Đức Thịnh</t>
+  </si>
+  <si>
+    <t>Diễn viên Trung Dũng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hồ Quỳnh Hương</t>
+  </si>
+  <si>
+    <t>Ca sĩ Tóc Tiên</t>
+  </si>
+  <si>
+    <t>Ca sĩ Mỹ Tâm</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hồ Ngọc Hà</t>
+  </si>
+  <si>
+    <t>Ca sĩ Thanh Lam</t>
+  </si>
+  <si>
+    <t>Ca sĩ Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hồng Nhung</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hương Tràm</t>
+  </si>
+  <si>
+    <t>Ca sĩ Lệ Quyên</t>
+  </si>
+  <si>
+    <t>Ca sĩ Bảo Anh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hòa Minzy</t>
+  </si>
+  <si>
+    <t>Ca sĩ Như Quỳnh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Bùi Bích Phương</t>
+  </si>
+  <si>
+    <t>Ca sĩ Thùy Chi</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hoàng Yến Chibi</t>
+  </si>
+  <si>
+    <t>Ca sĩ Nhật Kim Anh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Cẩm Ly</t>
+  </si>
+  <si>
+    <t>Ca sĩ Vy Oanh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Lương Bích Hữu</t>
+  </si>
+  <si>
+    <t>Ca sĩ Đông Nhi</t>
+  </si>
+  <si>
+    <t>Ca sĩ Bảo Thy</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phạm Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Minh Tuyết</t>
+  </si>
+  <si>
+    <t>Ca sĩ Thủy Tiên</t>
+  </si>
+  <si>
+    <t>Ca sĩ Vũ Cát Tường</t>
+  </si>
+  <si>
+    <t>Ca sĩ Tiên Tiên</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hiền Thục</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hari Won</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phương Thanh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Dương Hoàng Yến</t>
+  </si>
+  <si>
+    <t>Ca sĩ Thanh Thảo</t>
+  </si>
+  <si>
+    <t>Ca sĩ Văn Mai Hương</t>
+  </si>
+  <si>
+    <t>Ca sĩ Minh Hằng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hoàng Thùy Linh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Khổng Tú Quỳnh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Uyên Linh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hương Giang Idol</t>
+  </si>
+  <si>
+    <t>Ca sĩ Giang Hồng Ngọc</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trang Pháp</t>
+  </si>
+  <si>
+    <t>Ca sĩ Yến Trang</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phương Vy Idol</t>
+  </si>
+  <si>
+    <t>Ca sĩ Thu Phương</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phi Nhung</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hương Lan</t>
+  </si>
+  <si>
+    <t>Ca sĩ Cẩm Vân</t>
+  </si>
+  <si>
+    <t>Ca sĩ Ánh Tuyết</t>
+  </si>
+  <si>
+    <t>Ca sĩ Chi Pu</t>
+  </si>
+  <si>
+    <t>Ca sĩ Miu Lê</t>
+  </si>
+  <si>
+    <t>Ca sĩ Maya</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trương Quỳnh Anh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Thanh Thúy</t>
+  </si>
+  <si>
+    <t>Ca sĩ Châu Khải Phong</t>
+  </si>
+  <si>
+    <t>Ca sĩ Justa Tee</t>
+  </si>
+  <si>
+    <t>Ca sĩ Erik</t>
+  </si>
+  <si>
+    <t>Ca sĩ Chi Dân</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trịnh Thăng Bình</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hồ Quang Hiếu</t>
+  </si>
+  <si>
+    <t>Ca sĩ Noo Phước Thịnh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Đàm Vĩnh Hưng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Khắc Việt</t>
+  </si>
+  <si>
+    <t>Ca sĩ Quang Hà</t>
+  </si>
+  <si>
+    <t>Ca sĩ Bùi Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trung Quân Idol</t>
+  </si>
+  <si>
+    <t>Ca sĩ Tuấn Hưng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Khánh Phương</t>
+  </si>
+  <si>
+    <t>Ca sĩ Duy Mạnh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Ưng Hoàng Phúc</t>
+  </si>
+  <si>
+    <t>Ca sĩ Isaac</t>
+  </si>
+  <si>
+    <t>Ca sĩ Cao Thái Sơn</t>
+  </si>
+  <si>
+    <t>Ca sĩ Bằng Kiều</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phạm Hồng Phước</t>
+  </si>
+  <si>
+    <t>Ca sĩ Lê Hiếu</t>
+  </si>
+  <si>
+    <t>Ca sĩ Quốc Thiên</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hoài Lâm</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phan Đinh Tùng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Lam Trường</t>
+  </si>
+  <si>
+    <t>Ca sĩ Quang Dũng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Quang Vinh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Ngô Kiến Huy</t>
+  </si>
+  <si>
+    <t>Ca sĩ Hà Anh Tuấn</t>
+  </si>
+  <si>
+    <t>Ca sĩ Ông Cao Thắng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Khắc Hưng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Nhật Tinh Anh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Nam Cường</t>
+  </si>
+  <si>
+    <t>Ca sĩ Quách Thành Danh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trúc Nhân</t>
+  </si>
+  <si>
+    <t>Ca sĩ Quang Linh</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phi Hùng</t>
+  </si>
+  <si>
+    <t>Ca sĩ Đan Trường</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trọng Hiếu</t>
+  </si>
+  <si>
+    <t>Ca sĩ Đăng Khôi</t>
+  </si>
+  <si>
+    <t>Ca sĩ Dương Triệu Vũ</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trần Lập</t>
+  </si>
+  <si>
+    <t>Ca sĩ Phạm Anh Khoa</t>
+  </si>
+  <si>
+    <t>Ca sĩ Tuấn Ngọc</t>
+  </si>
+  <si>
+    <t>Ca sĩ Trọng Tấn</t>
+  </si>
+  <si>
+    <t>Ca sĩ Việt Hoàn</t>
+  </si>
+  <si>
+    <t>Ca sĩ Đức Tuấn</t>
+  </si>
+  <si>
+    <t>Ca sĩ Quang Lê</t>
   </si>
   <si>
     <t>Thủ môn Bùi Tiến Dũng</t>
   </si>
   <si>
-    <t>Công Phượng</t>
-  </si>
-  <si>
-    <t>Hà Đức Chinh</t>
-  </si>
-  <si>
-    <t>Hồng Sơn</t>
-  </si>
-  <si>
-    <t>Huỳnh Đức</t>
-  </si>
-  <si>
-    <t>Phan Văn Tài Em</t>
-  </si>
-  <si>
-    <t>Sỹ Hùng</t>
-  </si>
-  <si>
-    <t>Vũ Văn Thanh</t>
-  </si>
-  <si>
-    <t>Đỗ Duy Mạnh</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Hải</t>
-  </si>
-  <si>
-    <t>Lương Xuân Trường</t>
-  </si>
-  <si>
-    <t>Nguyễn Hữu Thắng</t>
-  </si>
-  <si>
-    <t>Phạm Văn Quyến</t>
+    <t>Cầu thủ Công Phượng</t>
+  </si>
+  <si>
+    <t>Cầu thủ Hà Đức Chinh</t>
+  </si>
+  <si>
+    <t>Cầu thủ Hồng Sơn</t>
+  </si>
+  <si>
+    <t>Cầu thủ Huỳnh Đức</t>
+  </si>
+  <si>
+    <t>Cầu thủ Phan Văn Tài Em</t>
+  </si>
+  <si>
+    <t>Cầu thủ Sỹ Hùng</t>
+  </si>
+  <si>
+    <t>Cầu thủ Vũ Văn Thanh</t>
+  </si>
+  <si>
+    <t>Cầu thủ Đỗ Duy Mạnh</t>
+  </si>
+  <si>
+    <t>Cầu thủ Nguyễn Quang Hải</t>
+  </si>
+  <si>
+    <t>Cầu thủ Lương Xuân Trường</t>
+  </si>
+  <si>
+    <t>Cầu thủ Nguyễn Hữu Thắng</t>
+  </si>
+  <si>
+    <t>Cầu thủ Phạm Văn Quyến</t>
   </si>
   <si>
     <t>Đoàn Nguyên Đức</t>
   </si>
   <si>
-    <t>Lê Công Vinh</t>
-  </si>
-  <si>
-    <t>Phạm Thành Lương</t>
-  </si>
-  <si>
-    <t>Phan Thanh Bình</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Phương</t>
+    <t>Cầu thủ Lê Công Vinh</t>
+  </si>
+  <si>
+    <t>Cầu thủ Phạm Thành Lương</t>
+  </si>
+  <si>
+    <t>Cầu thủ Phan Thanh Bình</t>
+  </si>
+  <si>
+    <t>Cầu thủ Nguyễn Minh Phương</t>
   </si>
   <si>
     <t>Mai Đức Chung</t>
   </si>
   <si>
-    <t>Hoàng Xuân Vinh</t>
-  </si>
-  <si>
-    <t>Đoàn Kiến Quốc</t>
-  </si>
-  <si>
-    <t>Nguyễn Tiến Minh</t>
-  </si>
-  <si>
-    <t>Trịnh Công Sơn</t>
-  </si>
-  <si>
-    <t>Trần Tiến</t>
-  </si>
-  <si>
-    <t>Phú Quang</t>
-  </si>
-  <si>
-    <t>Văn Cao</t>
-  </si>
-  <si>
-    <t>Giáng Son</t>
-  </si>
-  <si>
-    <t>Lê Minh Sơn</t>
-  </si>
-  <si>
-    <t>Hồ Hoài Anh</t>
-  </si>
-  <si>
-    <t>Tuấn Khanh</t>
-  </si>
-  <si>
-    <t>Quốc Trung</t>
-  </si>
-  <si>
-    <t>Đức Huy</t>
-  </si>
-  <si>
-    <t>Nguyễn Cường</t>
-  </si>
-  <si>
-    <t>Phạm Tuyên</t>
-  </si>
-  <si>
-    <t>Huy Tuấn</t>
-  </si>
-  <si>
-    <t>Đức Trí</t>
-  </si>
-  <si>
-    <t>Dương Khắc Linh</t>
-  </si>
-  <si>
-    <t>Bảo Chấn</t>
-  </si>
-  <si>
-    <t>Chế Linh</t>
-  </si>
-  <si>
-    <t>Dương Thụ</t>
+    <t xml:space="preserve"> Vận động viên Hoàng Xuân Vinh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vận động viên Đoàn Kiến Quốc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vận động viên Nguyễn Tiến Minh</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vận động viên Nguyễn Thị Ánh Viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vận động viên Phan Thị Kim Huệ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vận động viên Thúy Hiền</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Trịnh Công Sơn</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Trần Tiến</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Phú Quang</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Văn Cao</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Giáng Son</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Lê Minh Sơn</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Hồ Hoài Anh</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Tuấn Khanh</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Quốc Trung</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Đức Huy</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Nguyễn Cường</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Phạm Tuyên</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Huy Tuấn</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Đức Trí</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Dương Khắc Linh</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Bảo Chấn</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Chế Linh</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Dương Thụ</t>
   </si>
   <si>
     <t>Jimii Nguyễn</t>
   </si>
   <si>
-    <t>Lương Minh</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Thiện</t>
-  </si>
-  <si>
-    <t>Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Phó Đức Phương</t>
-  </si>
-  <si>
-    <t>Nguyễn Hải Phong</t>
-  </si>
-  <si>
-    <t>Nguyễn Vĩnh Tiến</t>
-  </si>
-  <si>
-    <t>Lại Văn Sâm</t>
-  </si>
-  <si>
-    <t>Tạ Bích Loan</t>
-  </si>
-  <si>
-    <t>Lê Bình</t>
-  </si>
-  <si>
-    <t>Hạnh Phúc</t>
-  </si>
-  <si>
-    <t>Minh Hà</t>
-  </si>
-  <si>
-    <t>Anh Tuấn</t>
-  </si>
-  <si>
-    <t>Hoài Anh</t>
-  </si>
-  <si>
-    <t>Mai Ngọc</t>
-  </si>
-  <si>
-    <t>Khắc Cường</t>
-  </si>
-  <si>
-    <t>Thụy Vân</t>
-  </si>
-  <si>
-    <t>Diễm Quỳnh</t>
-  </si>
-  <si>
-    <t>Lê Hoàng</t>
-  </si>
-  <si>
-    <t>Diệp Chi</t>
-  </si>
-  <si>
-    <t>Thu Uyên</t>
+    <t>Nhạc sĩ Lương Minh</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Nguyễn Ngọc Thiện</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Phó Đức Phương</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Nguyễn Hải Phong</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Nguyễn Vĩnh Tiến</t>
+  </si>
+  <si>
+    <t>Họa sĩ Thành Chương</t>
+  </si>
+  <si>
+    <t>Họa sĩ Bùi Xuân Phái</t>
+  </si>
+  <si>
+    <t>Họa sĩ Trần Văn Cẩn</t>
+  </si>
+  <si>
+    <t>Nhạc sĩ Đỗ Trung Quân</t>
+  </si>
+  <si>
+    <t>Nhà thơ Hồng Thanh Quang</t>
+  </si>
+  <si>
+    <t>Nhà thơ Trần Đăng Khoa</t>
+  </si>
+  <si>
+    <t>Nhà văn Trang Hạ</t>
+  </si>
+  <si>
+    <t>MC Lại Văn Sâm</t>
+  </si>
+  <si>
+    <t>MC Tạ Bích Loan</t>
+  </si>
+  <si>
+    <t>MC Lê Bình</t>
+  </si>
+  <si>
+    <t>MC Hạnh Phúc</t>
+  </si>
+  <si>
+    <t>MC Minh Hà</t>
+  </si>
+  <si>
+    <t>MC Anh Tuấn</t>
+  </si>
+  <si>
+    <t>MC Hoài Anh</t>
+  </si>
+  <si>
+    <t>MC Mai Ngọc</t>
+  </si>
+  <si>
+    <t>MC Khắc Cường</t>
+  </si>
+  <si>
+    <t>MC Thụy Vân</t>
+  </si>
+  <si>
+    <t>MC Diễm Quỳnh</t>
+  </si>
+  <si>
+    <t>MC Lê Hoàng</t>
+  </si>
+  <si>
+    <t>MC Diệp Chi</t>
+  </si>
+  <si>
+    <t>MC Thu Uyên</t>
   </si>
   <si>
     <t>Mai Phương Thúy</t>
@@ -563,7 +887,7 @@
     <t>Trương Thị May</t>
   </si>
   <si>
-    <t>Đỗ Mỹ Linh</t>
+    <t>Hoa hậu Đỗ Mỹ Linh</t>
   </si>
   <si>
     <t>Đặng Ngọc Hân</t>
@@ -596,10 +920,10 @@
     <t>Mâu Thanh Thủy</t>
   </si>
   <si>
-    <t>Hà Anh</t>
-  </si>
-  <si>
-    <t>Trương Ngọc Ánh</t>
+    <t>Người mẫu Hà Anh</t>
+  </si>
+  <si>
+    <t>Người mẫu Trương Ngọc Ánh</t>
   </si>
   <si>
     <t>Anh Thư</t>
@@ -635,22 +959,22 @@
     <t>Jennifer Phạm</t>
   </si>
   <si>
-    <t>Huyền My</t>
+    <t>Hoa hậu Huyền My</t>
   </si>
   <si>
     <t>Ngọc Hân</t>
   </si>
   <si>
-    <t>Trịnh Kim Chi</t>
+    <t>Hoa hậu Trịnh Kim Chi</t>
   </si>
   <si>
     <t>Dương Tú Anh</t>
   </si>
   <si>
-    <t>Linh Nga</t>
-  </si>
-  <si>
-    <t>Trần Ly Ly</t>
+    <t>Diễn viên múa Linh Nga</t>
+  </si>
+  <si>
+    <t>Biên đạo múa Trần Ly Ly</t>
   </si>
   <si>
     <t>Bình Minh</t>
@@ -671,303 +995,12 @@
     <t>Vĩnh Thụy</t>
   </si>
   <si>
-    <t>Tiến Đoàn</t>
+    <t>Người mẫu Tiến Đoàn</t>
   </si>
   <si>
     <t>Chí Anh</t>
   </si>
   <si>
-    <t>Việt Hương</t>
-  </si>
-  <si>
-    <t>Minh Vượng</t>
-  </si>
-  <si>
-    <t>Lâm Vỹ Dạ</t>
-  </si>
-  <si>
-    <t>Thu Trang</t>
-  </si>
-  <si>
-    <t>Nhã Phương</t>
-  </si>
-  <si>
-    <t>Bảo Thanh</t>
-  </si>
-  <si>
-    <t>Cát Phượng</t>
-  </si>
-  <si>
-    <t>Hồng Ánh</t>
-  </si>
-  <si>
-    <t>Hồng Vân</t>
-  </si>
-  <si>
-    <t>Hoàng Oanh</t>
-  </si>
-  <si>
-    <t>Lan Phương</t>
-  </si>
-  <si>
-    <t>Lê Khánh</t>
-  </si>
-  <si>
-    <t>Lý Nhã Kỳ</t>
-  </si>
-  <si>
-    <t>Ngô Thanh Vân</t>
-  </si>
-  <si>
-    <t>Ninh Dương Lan Ngọc</t>
-  </si>
-  <si>
-    <t>Ốc Thanh Vân</t>
-  </si>
-  <si>
-    <t>Vân Trang</t>
-  </si>
-  <si>
-    <t>Việt Trinh</t>
-  </si>
-  <si>
-    <t>Thu Quỳnh</t>
-  </si>
-  <si>
-    <t>Kim Tuyến</t>
-  </si>
-  <si>
-    <t>Cát Tường</t>
-  </si>
-  <si>
-    <t>Kim Xuân</t>
-  </si>
-  <si>
-    <t>Lê Khanh</t>
-  </si>
-  <si>
-    <t>Midu</t>
-  </si>
-  <si>
-    <t>Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>Thủy Top</t>
-  </si>
-  <si>
-    <t>Tường Vi</t>
-  </si>
-  <si>
-    <t>Lã Thanh Huyền</t>
-  </si>
-  <si>
-    <t>Thanh Vân Hugo</t>
-  </si>
-  <si>
-    <t>Lan Hương</t>
-  </si>
-  <si>
-    <t>Hồng Diễm</t>
-  </si>
-  <si>
-    <t>Thanh Hương</t>
-  </si>
-  <si>
-    <t>Mỹ Uyên</t>
-  </si>
-  <si>
-    <t>Đan Lê</t>
-  </si>
-  <si>
-    <t>Thanh Quý</t>
-  </si>
-  <si>
-    <t>Thùy Anh</t>
-  </si>
-  <si>
-    <t>Ngân Khánh</t>
-  </si>
-  <si>
-    <t>Lâm Khánh Chi</t>
-  </si>
-  <si>
-    <t>Nguyệt Hằng</t>
-  </si>
-  <si>
-    <t>Thu Hương</t>
-  </si>
-  <si>
-    <t>Vân Dung</t>
-  </si>
-  <si>
-    <t>Lê Phương</t>
-  </si>
-  <si>
-    <t>Mai Phương</t>
-  </si>
-  <si>
-    <t>Trấn Thành</t>
-  </si>
-  <si>
-    <t>Trường Giang</t>
-  </si>
-  <si>
-    <t>Hoài Linh</t>
-  </si>
-  <si>
-    <t>Anh Đức</t>
-  </si>
-  <si>
-    <t>Tự Long</t>
-  </si>
-  <si>
-    <t>Xuân Bắc</t>
-  </si>
-  <si>
-    <t>Giang còi</t>
-  </si>
-  <si>
-    <t>Xuân Hinh</t>
-  </si>
-  <si>
-    <t>Công Lý</t>
-  </si>
-  <si>
-    <t>Chí Tài</t>
-  </si>
-  <si>
-    <t>Đại Nghĩa</t>
-  </si>
-  <si>
-    <t>Đức Hải</t>
-  </si>
-  <si>
-    <t>Hứa Vĩ Văn</t>
-  </si>
-  <si>
-    <t>Huy Khánh</t>
-  </si>
-  <si>
-    <t>Hiếu Hiền</t>
-  </si>
-  <si>
-    <t>Jonny Trí Nguyễn</t>
-  </si>
-  <si>
-    <t>Kiều Minh Tuấn</t>
-  </si>
-  <si>
-    <t>Lý Hải</t>
-  </si>
-  <si>
-    <t>Quách Ngọc Ngoan</t>
-  </si>
-  <si>
-    <t>Trần Bảo Sơn</t>
-  </si>
-  <si>
-    <t>Trương Thế Vinh</t>
-  </si>
-  <si>
-    <t>Tiến Luật</t>
-  </si>
-  <si>
-    <t>Việt Anh</t>
-  </si>
-  <si>
-    <t>Thành Lộc</t>
-  </si>
-  <si>
-    <t>Mạnh Trường</t>
-  </si>
-  <si>
-    <t>Hồng Đăng</t>
-  </si>
-  <si>
-    <t>Chi Bảo</t>
-  </si>
-  <si>
-    <t>Thái Hòa</t>
-  </si>
-  <si>
-    <t>Kim Lý</t>
-  </si>
-  <si>
-    <t>Hiếu Nguyễn</t>
-  </si>
-  <si>
-    <t>Quý Bình</t>
-  </si>
-  <si>
-    <t>Lý Hùng</t>
-  </si>
-  <si>
-    <t>Lương Mạnh Hải</t>
-  </si>
-  <si>
-    <t>Minh Nhí</t>
-  </si>
-  <si>
-    <t>Bảo Chung</t>
-  </si>
-  <si>
-    <t>Chí Thiện</t>
-  </si>
-  <si>
-    <t>Hữu Nghĩa</t>
-  </si>
-  <si>
-    <t>Khương Ngọc</t>
-  </si>
-  <si>
-    <t>Minh Thuận</t>
-  </si>
-  <si>
-    <t>Quang Thắng</t>
-  </si>
-  <si>
-    <t>Quang Tèo</t>
-  </si>
-  <si>
-    <t>Đỗ Kỷ</t>
-  </si>
-  <si>
-    <t>Anh Dũng</t>
-  </si>
-  <si>
-    <t>Hoàng Dũng</t>
-  </si>
-  <si>
-    <t>Mạnh Cường</t>
-  </si>
-  <si>
-    <t>Trần Đức</t>
-  </si>
-  <si>
-    <t>Huỳnh Anh</t>
-  </si>
-  <si>
-    <t>Chí Trung</t>
-  </si>
-  <si>
-    <t>Đức Khuê</t>
-  </si>
-  <si>
-    <t>Anh Tú</t>
-  </si>
-  <si>
-    <t>Trần Lực</t>
-  </si>
-  <si>
-    <t>Anh Vũ</t>
-  </si>
-  <si>
-    <t>Đức Thịnh</t>
-  </si>
-  <si>
-    <t>Trung Dũng</t>
-  </si>
-  <si>
     <t>Nguyễn Phú Trọng</t>
   </si>
   <si>
@@ -1107,9 +1140,6 @@
   </si>
   <si>
     <t>Nguyễn Thị Phương Thảo</t>
-  </si>
-  <si>
-    <t>Lê Đăng Dũng</t>
   </si>
 </sst>
 </file>
@@ -1177,9 +1207,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1460,15 +1491,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A368"/>
+  <dimension ref="A1:A374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A367" sqref="A367:A374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -1977,242 +2008,242 @@
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="2" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="2" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2282,1033 +2313,1063 @@
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163" s="3" t="s">
+      <c r="A163" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="2" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="2" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="2" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>169</v>
+      <c r="A182" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>181</v>
+      <c r="A183" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>182</v>
+      <c r="A184" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>183</v>
+      <c r="A185" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>184</v>
+      <c r="A186" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
-        <v>185</v>
+      <c r="A187" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>186</v>
+      <c r="A188" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
-        <v>187</v>
+      <c r="A189" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>188</v>
+      <c r="A190" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
-        <v>189</v>
+      <c r="A191" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>190</v>
+      <c r="A192" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
-        <v>191</v>
+      <c r="A193" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
-        <v>192</v>
+      <c r="A194" s="2" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
-        <v>193</v>
+      <c r="A195" s="2" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
-        <v>194</v>
+      <c r="A196" s="2" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
-        <v>195</v>
+      <c r="A197" s="2" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
-        <v>196</v>
+      <c r="A198" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
-        <v>197</v>
+      <c r="A199" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>198</v>
+      <c r="A200" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
-        <v>200</v>
+      <c r="A202" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
-        <v>201</v>
+      <c r="A203" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>202</v>
+      <c r="A204" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
-        <v>203</v>
+      <c r="A205" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
-        <v>204</v>
+      <c r="A206" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
-        <v>205</v>
+      <c r="A207" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
-        <v>206</v>
+      <c r="A208" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
-        <v>207</v>
+      <c r="A209" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
-        <v>208</v>
+      <c r="A210" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>209</v>
+      <c r="A211" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
-        <v>210</v>
+      <c r="A212" s="2" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
-        <v>211</v>
+      <c r="A213" s="2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
-        <v>213</v>
+      <c r="A215" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
-        <v>214</v>
+      <c r="A216" s="2" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
-        <v>215</v>
+      <c r="A217" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
-        <v>216</v>
+      <c r="A218" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>218</v>
+      <c r="A220" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
-        <v>219</v>
+      <c r="A221" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
-        <v>220</v>
+      <c r="A222" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
-        <v>221</v>
+      <c r="A223" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
-        <v>222</v>
+      <c r="A224" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
-        <v>223</v>
+      <c r="A225" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>151</v>
+        <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
-        <v>246</v>
+      <c r="A251" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
-        <v>247</v>
+      <c r="A252" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
-        <v>248</v>
+      <c r="A253" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
-        <v>249</v>
+      <c r="A254" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
-        <v>250</v>
+      <c r="A255" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
-        <v>251</v>
+      <c r="A256" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
-        <v>252</v>
+      <c r="A257" s="3" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
-        <v>253</v>
+      <c r="A258" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
-        <v>254</v>
+      <c r="A259" s="3" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
-        <v>255</v>
+      <c r="A260" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
-        <v>32</v>
+      <c r="A261" s="3" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
-        <v>256</v>
+      <c r="A262" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
-        <v>257</v>
+      <c r="A263" s="3" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
-        <v>258</v>
+      <c r="A264" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
-        <v>259</v>
+      <c r="A265" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
-        <v>260</v>
+      <c r="A266" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
-        <v>261</v>
+      <c r="A267" s="3" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
-        <v>262</v>
+      <c r="A268" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
-        <v>263</v>
+      <c r="A269" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
-        <v>264</v>
+      <c r="A270" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
-        <v>265</v>
+      <c r="A271" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
-        <v>314</v>
+      <c r="A320" s="1" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A321" s="2" t="s">
-        <v>315</v>
+      <c r="A321" s="1" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A322" s="2" t="s">
-        <v>316</v>
+      <c r="A322" s="1" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A323" s="2" t="s">
-        <v>317</v>
+      <c r="A323" s="1" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
-        <v>318</v>
+      <c r="A324" s="1" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A325" s="2" t="s">
-        <v>319</v>
+      <c r="A325" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A326" s="2" t="s">
-        <v>320</v>
+      <c r="A326" s="1" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A327" s="2" t="s">
-        <v>321</v>
+      <c r="A327" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A328" s="2" t="s">
-        <v>322</v>
+      <c r="A328" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
-        <v>323</v>
+      <c r="A329" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A330" s="2" t="s">
-        <v>324</v>
+      <c r="A330" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A331" s="2" t="s">
-        <v>325</v>
+      <c r="A331" s="3" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
-        <v>326</v>
+      <c r="A332" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
-        <v>327</v>
+      <c r="A333" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A334" s="2" t="s">
-        <v>328</v>
+      <c r="A334" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A335" s="2" t="s">
-        <v>329</v>
+      <c r="A335" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A336" s="2" t="s">
-        <v>330</v>
+      <c r="A336" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A337" s="2" t="s">
-        <v>331</v>
+      <c r="A337" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A338" s="2" t="s">
-        <v>332</v>
+      <c r="A338" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A346" s="3" t="s">
-        <v>340</v>
+      <c r="A346" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A347" s="3" t="s">
-        <v>341</v>
+      <c r="A347" s="4" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A348" s="3" t="s">
-        <v>342</v>
+      <c r="A348" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A351" s="3" t="s">
-        <v>345</v>
+      <c r="A351" s="4" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A352" s="3" t="s">
-        <v>346</v>
+      <c r="A352" s="4" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A353" s="3" t="s">
-        <v>347</v>
+      <c r="A353" s="4" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A354" s="3" t="s">
-        <v>348</v>
+      <c r="A354" s="4" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A355" s="3" t="s">
-        <v>349</v>
+      <c r="A355" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A356" s="3" t="s">
-        <v>350</v>
+      <c r="A356" s="5" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A357" s="3" t="s">
-        <v>351</v>
+      <c r="A357" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A358" s="3" t="s">
-        <v>352</v>
+      <c r="A358" s="4" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A359" s="3" t="s">
-        <v>353</v>
+      <c r="A359" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A360" s="2" t="s">
-        <v>354</v>
+      <c r="A360" s="4" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A361" s="2" t="s">
-        <v>355</v>
+      <c r="A361" s="4" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A362" s="2" t="s">
-        <v>356</v>
+      <c r="A362" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A363" s="2" t="s">
-        <v>320</v>
+      <c r="A363" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A364" s="2" t="s">
-        <v>357</v>
+      <c r="A364" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A365" s="2" t="s">
-        <v>358</v>
+      <c r="A365" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A366" s="2" t="s">
-        <v>359</v>
+      <c r="A366" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A367" s="2" t="s">
-        <v>360</v>
+      <c r="A367" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A368" s="2" t="s">
-        <v>361</v>
+      <c r="A368" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A369" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A370" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A371" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A372" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A373" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A374" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
